--- a/ApolloQA/Data/RatingManual/SC/VA00051.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00051.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00051.ClassCodeFactors" sheetId="1" r:id="Ra257a2c7852747f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00051.ClassCodeFactors" sheetId="1" r:id="R5ce0bcc61e6d4d63"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9750</x:v>
+        <x:v>1.2188</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7768</x:v>
+        <x:v>2.2210</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6828</x:v>
+        <x:v>2.1035</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6702</x:v>
+        <x:v>2.0878</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,91 +151,91 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1.2355</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2123</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0764</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8770</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1234</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1497</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9772</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9881</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9879</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9833</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>0.9884</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.7698</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.6611</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8770</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>546</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.1234</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.1497</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>548</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9772</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>549</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9881</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>550</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9879</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9833</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>552</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9884</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
         <x:v>553</x:v>
       </x:c>
       <x:c t="str">
@@ -311,7 +311,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9963</x:v>
+        <x:v>1.2454</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -327,7 +327,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6861</x:v>
+        <x:v>2.1076</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -335,7 +335,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6872</x:v>
+        <x:v>2.1090</x:v>
       </x:c>
     </x:row>
     <x:row>
